--- a/data/trans_bre/P19C04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,08%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,53; -3,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,62; -10,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,78; -5,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,13; -7,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,71; -13,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,54; -27,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,1; -18,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,62; -22,81</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,41%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,33; -3,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,79; -4,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,21; -2,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,08; -2,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,47; -23,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,99; -22,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,77; -15,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,03; -21,99</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,77%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,63; 1,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,67; 1,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 2,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,06; -0,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,64; 28,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,81; 21,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,17; 44,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,04; -11,54</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,46%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; -3,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; -5,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; -2,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,62; -2,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,97; -16,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,53; -21,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,86; -15,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,52; -20,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,48</t>
+          <t>-10,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-33,08%</t>
+          <t>-31,28%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,13; -7,14</t>
+          <t>-15,06; -6,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,62; -22,81</t>
+          <t>-40,84; -20,55</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-35,41%</t>
+          <t>-33,63%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -2,68</t>
+          <t>-7,12; -0,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,03; -21,99</t>
+          <t>-51,61; -7,57</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-41,77%</t>
+          <t>-40,24%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; -0,87</t>
+          <t>-5,8; -0,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,04; -11,54</t>
+          <t>-61,19; -10,67</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-29,46%</t>
+          <t>-27,23%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -2,99</t>
+          <t>-6,28; -0,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,52; -20,34</t>
+          <t>-41,23; -8,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,53; -3,8</t>
+          <t>-12,57; -3,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,62; -10,57</t>
+          <t>-19,2; -10,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,78; -5,88</t>
+          <t>-16,87; -5,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -6,24</t>
+          <t>-15,25; -5,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,71; -13,06</t>
+          <t>-37,09; -12,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,54; -27,51</t>
+          <t>-43,54; -26,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-46,1; -18,65</t>
+          <t>-46,41; -18,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,84; -20,55</t>
+          <t>-41,08; -19,21</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -3,91</t>
+          <t>-9,24; -3,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -4,47</t>
+          <t>-9,86; -4,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -2,39</t>
+          <t>-7,27; -2,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -0,4</t>
+          <t>-6,92; -0,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,47; -23,02</t>
+          <t>-46,65; -22,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -22,95</t>
+          <t>-43,74; -22,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,77; -15,99</t>
+          <t>-41,05; -15,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,61; -7,57</t>
+          <t>-50,49; -4,29</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 1,58</t>
+          <t>-5,53; 1,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 1,63</t>
+          <t>-6,3; 1,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,77</t>
+          <t>-4,33; 2,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; -0,76</t>
+          <t>-6,09; -0,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,64; 28,71</t>
+          <t>-55,63; 27,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,81; 21,23</t>
+          <t>-52,97; 24,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 44,07</t>
+          <t>-41,74; 40,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,19; -10,67</t>
+          <t>-61,97; -12,5</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -3,12</t>
+          <t>-7,1; -3,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -5,07</t>
+          <t>-9,38; -5,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,64; -2,64</t>
+          <t>-6,69; -2,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,28; -0,39</t>
+          <t>-6,32; -0,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,97; -16,54</t>
+          <t>-34,32; -17,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,53; -21,54</t>
+          <t>-35,9; -21,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,86; -15,73</t>
+          <t>-35,62; -15,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,23; -8,63</t>
+          <t>-40,86; -7,84</t>
         </is>
       </c>
     </row>
